--- a/samples/product_import_sample.xlsx
+++ b/samples/product_import_sample.xlsx
@@ -82,13 +82,13 @@
     <t xml:space="preserve">unit_qty</t>
   </si>
   <si>
-    <t xml:space="preserve">test-sku-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test product 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARCODE-0001</t>
+    <t xml:space="preserve">test-sku-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test product 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARCODE-0006</t>
   </si>
   <si>
     <t xml:space="preserve">NORMAL</t>
@@ -115,37 +115,37 @@
     <t xml:space="preserve">KraftPaper|SerialNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">test-sku-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test product 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARCODE-0002</t>
+    <t xml:space="preserve">test-sku-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test product 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARCODE-0007</t>
   </si>
   <si>
     <t xml:space="preserve">GB</t>
   </si>
   <si>
-    <t xml:space="preserve">test-sku-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test product 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARCODE-0003</t>
+    <t xml:space="preserve">test-sku-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test product 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARCODE-0008</t>
   </si>
   <si>
     <t xml:space="preserve">PL</t>
   </si>
   <si>
-    <t xml:space="preserve">test-sku-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test product 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARCODE-0004</t>
+    <t xml:space="preserve">test-sku-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test product 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARCODE-0009</t>
   </si>
 </sst>
 </file>
@@ -160,6 +160,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -243,29 +244,29 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R6" activeCellId="0" sqref="R6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.95"/>
